--- a/Lecture/Week_4/ToTal_Data_final.xlsx
+++ b/Lecture/Week_4/ToTal_Data_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SU2\CFD_Class_Lecture\Lecture\Week_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1AFCAE-FF79-40F8-82E4-1F599E606786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573B6A79-D933-4144-9F4D-9EFBE521FB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E3DD7B3-3E68-47A2-BA5B-92A3961E79F7}"/>
   </bookViews>
@@ -35,8 +35,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>YHD</author>
+  </authors>
+  <commentList>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{D4C27416-FCAF-4E38-831C-C645B40EFF1D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AOA: 10
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{3A3E0151-0EA5-498E-B7B8-792495D0A0C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AOA: 15</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>AOA</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,47 +84,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수렴 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [8474]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [5211]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [ 5937]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [20799]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [11169]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [8449]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [8548]</t>
+    <t>해석 수 [n]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수렴 [7392]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렴 [14070]</t>
+    <t>실험 값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +122,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,18 +162,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,19 +506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD1890-F2C7-4CB7-AB80-B094C6C36717}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDD1890-F2C7-4CB7-AB80-B094C6C36717}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,258 +526,350 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.4469999999999996E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.94000600000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.120611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1.9694400000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.215533</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.22681399999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8499</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.2340012898256814E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2.9951500000000002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.34477000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.34515800000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7392</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.1253879397859427E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3.8513099999999998</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.43959900000000002</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4.8788799999999997</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.551678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5.9083100000000002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.68261000000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5211</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.5691308382307611E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7.9634600000000004</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.87075800000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.91226300000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5937</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.7665367415516149E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10.1891</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.1207400000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.1250279999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8548</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.8260435069684736E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11.0471</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.19842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>13.1088</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.36252</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.4270560000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11169</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.7365176290990338E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4.7365176290990338E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>16.375900000000001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.5959099999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.58213</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14070</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.6345721249944576E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.6345721249944576E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>16.567799999999998</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.4244300000000001</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>17.2971</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0902400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.4469999999999996E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8474</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1.9694400000000001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.22681399999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8499</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.2340012898256814E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.2340012898256814E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2.9951500000000002</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.34515800000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7392</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.1253879397859427E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.1253879397859427E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5.9083100000000002</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.68261000000000005</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5211</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.5691308382307611E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.5691308382307611E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>7.9634600000000004</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.91226300000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5937</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.7665367415516149E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.7665367415516149E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.94000600000000001</v>
-      </c>
-      <c r="B3">
-        <v>0.120611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1.9694400000000001</v>
-      </c>
-      <c r="B4">
-        <v>0.215533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2.9951500000000002</v>
-      </c>
-      <c r="B5">
-        <v>0.34477000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.8513099999999998</v>
-      </c>
-      <c r="B6">
-        <v>0.43959900000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4.8788799999999997</v>
-      </c>
-      <c r="B7">
-        <v>0.551678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5.9083100000000002</v>
-      </c>
-      <c r="B8">
-        <v>0.64659999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7.9634600000000004</v>
-      </c>
-      <c r="B9">
-        <v>0.87075800000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10.1891</v>
-      </c>
-      <c r="B10">
-        <v>1.1207400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>11.0471</v>
-      </c>
-      <c r="B11">
-        <v>1.19842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="B22" s="1">
+        <v>1.1250279999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8548</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.8260435069684736E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.8260435069684736E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>13.1088</v>
       </c>
-      <c r="B12">
-        <v>1.36252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>16.375900000000001</v>
-      </c>
-      <c r="B13">
-        <v>1.5959099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B23" s="1">
+        <v>1.4270560000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11169</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.7365176290990338E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.7365176290990338E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.58213</v>
+      </c>
+      <c r="C24" s="1">
+        <v>14070</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.6345721249944576E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8.6345721249944576E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>16.567799999999998</v>
       </c>
-      <c r="B14">
-        <v>1.4244300000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>17.2971</v>
-      </c>
-      <c r="B15">
-        <v>1.0902400000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>7.4469999999999996E-3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1.9694400000000001</v>
-      </c>
-      <c r="B18">
-        <v>0.22681399999999999</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3">
-        <f>ABS(B4-B18)/B4</f>
-        <v>5.2340012898256814E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2.9951500000000002</v>
-      </c>
-      <c r="B19">
-        <v>0.34515800000000002</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3">
-        <f>ABS(B5-B19)/B5</f>
-        <v>1.1253879397859427E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5.9083100000000002</v>
-      </c>
-      <c r="B20">
-        <v>0.68261000000000005</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3">
-        <f>(B20-B8)/B8</f>
-        <v>5.5691308382307611E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>7.9634600000000004</v>
-      </c>
-      <c r="B21">
-        <v>0.91226300000000005</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <f>(B21-B9)/B9</f>
-        <v>4.7665367415516149E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>1.1250279999999999</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="3">
-        <f>(B22-B10)/B10</f>
-        <v>3.8260435069684736E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>13.1088</v>
-      </c>
-      <c r="B23">
-        <v>1.4270560000000001</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3">
-        <f>ABS(B23-B12)/B12</f>
-        <v>4.7365176290990338E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>1.58213</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3">
-        <f>ABS(B24-B13)/B13</f>
-        <v>8.6345721249944576E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>16.375900000000001</v>
-      </c>
-      <c r="B25">
-        <v>1.6727730000000001</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <f>(ABS(B25-B14)/B14)</f>
-        <v>0.17434552768475808</v>
+      <c r="B25" s="1">
+        <v>1.23123</v>
+      </c>
+      <c r="D25" s="2">
+        <f>ABS(B25-B14)/B14</f>
+        <v>0.13563320064868054</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>